--- a/Testing/Helper/DatosGameObject.xlsx
+++ b/Testing/Helper/DatosGameObject.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -38,10 +35,13 @@
     <t>Pertenece a un ejercito</t>
   </si>
   <si>
-    <t>IdCategory</t>
-  </si>
-  <si>
     <t>Ejercito</t>
+  </si>
+  <si>
+    <t>NameObject</t>
+  </si>
+  <si>
+    <t>IdCategoryObject</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,24 +406,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
